--- a/excel_result/greedy/competition_1.xlsx
+++ b/excel_result/greedy/competition_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\Desktop\Uczelnia\Metaheurystyki\Metaheuristics-project-IHTC\excel_result\greedy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83E49AB-AFD0-4169-B08E-BBD0E5B86575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97151C18-0E7E-48E2-83F7-EBFB873952BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -482,7 +481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E05D68-B87C-4924-9895-E36AF1FD77ED}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:T2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -628,7 +629,7 @@
       <c r="S2">
         <v>3001</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -690,7 +691,7 @@
       <c r="S3">
         <v>3001</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,7 +753,7 @@
       <c r="S4">
         <v>3001</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -814,7 +815,7 @@
       <c r="S5">
         <v>3001</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -876,7 +877,7 @@
       <c r="S6">
         <v>3001</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -938,7 +939,7 @@
       <c r="S7">
         <v>3001</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1000,7 +1001,7 @@
       <c r="S8">
         <v>3001</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1062,7 +1063,7 @@
       <c r="S9">
         <v>3001</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1124,7 +1125,7 @@
       <c r="S10">
         <v>3001</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1186,7 +1187,7 @@
       <c r="S11">
         <v>3001</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1248,7 +1249,7 @@
       <c r="S12">
         <v>3001</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1310,7 +1311,7 @@
       <c r="S13">
         <v>3001</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1372,7 +1373,7 @@
       <c r="S14">
         <v>3001</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1434,7 +1435,7 @@
       <c r="S15">
         <v>3001</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1496,7 +1497,7 @@
       <c r="S16">
         <v>3001</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1558,7 +1559,7 @@
       <c r="S17">
         <v>3001</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1620,7 +1621,7 @@
       <c r="S18">
         <v>3001</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1682,7 +1683,7 @@
       <c r="S19">
         <v>3001</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1744,7 +1745,7 @@
       <c r="S20">
         <v>3001</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       <c r="S21">
         <v>3001</v>
       </c>
-      <c r="T21" s="1" t="s">
+      <c r="T21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1868,7 +1869,7 @@
       <c r="S22">
         <v>3001</v>
       </c>
-      <c r="T22" s="1" t="s">
+      <c r="T22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1930,7 +1931,7 @@
       <c r="S23">
         <v>3001</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1992,7 +1993,7 @@
       <c r="S24">
         <v>3001</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2054,7 +2055,7 @@
       <c r="S25">
         <v>3001</v>
       </c>
-      <c r="T25" s="1" t="s">
+      <c r="T25" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2116,7 +2117,7 @@
       <c r="S26">
         <v>3001</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T26" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2178,7 +2179,7 @@
       <c r="S27">
         <v>3001</v>
       </c>
-      <c r="T27" s="1" t="s">
+      <c r="T27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2240,7 +2241,7 @@
       <c r="S28">
         <v>3001</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T28" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2302,7 +2303,7 @@
       <c r="S29">
         <v>3001</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2364,7 +2365,7 @@
       <c r="S30">
         <v>3001</v>
       </c>
-      <c r="T30" s="1" t="s">
+      <c r="T30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2426,7 +2427,7 @@
       <c r="S31">
         <v>3001</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="T31" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2488,7 +2489,7 @@
       <c r="S32">
         <v>3001</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2550,7 +2551,7 @@
       <c r="S33">
         <v>3001</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="T33" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2612,7 +2613,7 @@
       <c r="S34">
         <v>3001</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="T34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2674,7 +2675,7 @@
       <c r="S35">
         <v>3001</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       <c r="S36">
         <v>3001</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2798,7 +2799,7 @@
       <c r="S37">
         <v>3001</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2860,7 +2861,7 @@
       <c r="S38">
         <v>3001</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2922,7 +2923,7 @@
       <c r="S39">
         <v>3001</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2984,7 +2985,7 @@
       <c r="S40">
         <v>3001</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3046,7 +3047,7 @@
       <c r="S41">
         <v>3001</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3108,7 +3109,7 @@
       <c r="S42">
         <v>3001</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="T42" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3170,7 +3171,7 @@
       <c r="S43">
         <v>3001</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3232,7 +3233,7 @@
       <c r="S44">
         <v>3001</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3294,7 +3295,7 @@
       <c r="S45">
         <v>3001</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3356,7 +3357,7 @@
       <c r="S46">
         <v>3001</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3418,7 +3419,7 @@
       <c r="S47">
         <v>3001</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3480,7 +3481,7 @@
       <c r="S48">
         <v>3001</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="T48" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3542,7 +3543,7 @@
       <c r="S49">
         <v>3001</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="T49" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3604,7 +3605,7 @@
       <c r="S50">
         <v>3001</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       <c r="S51">
         <v>3001</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T51" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3728,7 +3729,7 @@
       <c r="S52">
         <v>3001</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="T52" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3790,7 +3791,7 @@
       <c r="S53">
         <v>3001</v>
       </c>
-      <c r="T53" s="1" t="s">
+      <c r="T53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3852,7 +3853,7 @@
       <c r="S54">
         <v>3001</v>
       </c>
-      <c r="T54" s="1" t="s">
+      <c r="T54" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3914,7 +3915,7 @@
       <c r="S55">
         <v>3001</v>
       </c>
-      <c r="T55" s="1" t="s">
+      <c r="T55" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3976,7 +3977,7 @@
       <c r="S56">
         <v>3001</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="T56" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4038,7 +4039,7 @@
       <c r="S57">
         <v>3001</v>
       </c>
-      <c r="T57" s="1" t="s">
+      <c r="T57" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4100,7 +4101,7 @@
       <c r="S58">
         <v>3001</v>
       </c>
-      <c r="T58" s="1" t="s">
+      <c r="T58" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4162,7 +4163,7 @@
       <c r="S59">
         <v>3001</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="T59" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4224,7 +4225,7 @@
       <c r="S60">
         <v>3001</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="T60" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4286,7 +4287,7 @@
       <c r="S61">
         <v>3001</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="T61" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4348,7 +4349,7 @@
       <c r="S62">
         <v>3001</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="T62" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4410,7 +4411,7 @@
       <c r="S63">
         <v>3001</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="T63" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4472,7 +4473,7 @@
       <c r="S64">
         <v>3001</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="T64" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4534,7 +4535,7 @@
       <c r="S65">
         <v>3001</v>
       </c>
-      <c r="T65" s="1" t="s">
+      <c r="T65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       <c r="S66">
         <v>3001</v>
       </c>
-      <c r="T66" s="1" t="s">
+      <c r="T66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4658,7 +4659,7 @@
       <c r="S67">
         <v>3001</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="T67" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4720,7 +4721,7 @@
       <c r="S68">
         <v>3001</v>
       </c>
-      <c r="T68" s="1" t="s">
+      <c r="T68" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4782,7 +4783,7 @@
       <c r="S69">
         <v>3001</v>
       </c>
-      <c r="T69" s="1" t="s">
+      <c r="T69" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4844,7 +4845,7 @@
       <c r="S70">
         <v>3001</v>
       </c>
-      <c r="T70" s="1" t="s">
+      <c r="T70" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4906,7 +4907,7 @@
       <c r="S71">
         <v>3001</v>
       </c>
-      <c r="T71" s="1" t="s">
+      <c r="T71" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4968,7 +4969,7 @@
       <c r="S72">
         <v>3001</v>
       </c>
-      <c r="T72" s="1" t="s">
+      <c r="T72" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5030,7 +5031,7 @@
       <c r="S73">
         <v>3001</v>
       </c>
-      <c r="T73" s="1" t="s">
+      <c r="T73" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5092,7 +5093,7 @@
       <c r="S74">
         <v>3001</v>
       </c>
-      <c r="T74" s="1" t="s">
+      <c r="T74" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5154,7 +5155,7 @@
       <c r="S75">
         <v>3001</v>
       </c>
-      <c r="T75" s="1" t="s">
+      <c r="T75" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5216,7 +5217,7 @@
       <c r="S76">
         <v>3001</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="T76" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5278,7 +5279,7 @@
       <c r="S77">
         <v>3001</v>
       </c>
-      <c r="T77" s="1" t="s">
+      <c r="T77" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5340,7 +5341,7 @@
       <c r="S78">
         <v>3001</v>
       </c>
-      <c r="T78" s="1" t="s">
+      <c r="T78" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5402,7 +5403,7 @@
       <c r="S79">
         <v>3001</v>
       </c>
-      <c r="T79" s="1" t="s">
+      <c r="T79" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5464,7 +5465,7 @@
       <c r="S80">
         <v>3001</v>
       </c>
-      <c r="T80" s="1" t="s">
+      <c r="T80" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       <c r="S81">
         <v>3001</v>
       </c>
-      <c r="T81" s="1" t="s">
+      <c r="T81" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5588,7 +5589,7 @@
       <c r="S82">
         <v>3001</v>
       </c>
-      <c r="T82" s="1" t="s">
+      <c r="T82" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5650,7 +5651,7 @@
       <c r="S83">
         <v>3001</v>
       </c>
-      <c r="T83" s="1" t="s">
+      <c r="T83" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5712,7 +5713,7 @@
       <c r="S84">
         <v>3001</v>
       </c>
-      <c r="T84" s="1" t="s">
+      <c r="T84" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5774,7 +5775,7 @@
       <c r="S85">
         <v>3001</v>
       </c>
-      <c r="T85" s="1" t="s">
+      <c r="T85" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5836,7 +5837,7 @@
       <c r="S86">
         <v>3001</v>
       </c>
-      <c r="T86" s="1" t="s">
+      <c r="T86" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5898,7 +5899,7 @@
       <c r="S87">
         <v>3001</v>
       </c>
-      <c r="T87" s="1" t="s">
+      <c r="T87" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5960,7 +5961,7 @@
       <c r="S88">
         <v>3001</v>
       </c>
-      <c r="T88" s="1" t="s">
+      <c r="T88" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6022,7 +6023,7 @@
       <c r="S89">
         <v>3001</v>
       </c>
-      <c r="T89" s="1" t="s">
+      <c r="T89" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6084,7 +6085,7 @@
       <c r="S90">
         <v>3001</v>
       </c>
-      <c r="T90" s="1" t="s">
+      <c r="T90" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6146,7 +6147,7 @@
       <c r="S91">
         <v>3001</v>
       </c>
-      <c r="T91" s="1" t="s">
+      <c r="T91" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6208,7 +6209,7 @@
       <c r="S92">
         <v>3001</v>
       </c>
-      <c r="T92" s="1" t="s">
+      <c r="T92" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6270,7 +6271,7 @@
       <c r="S93">
         <v>3001</v>
       </c>
-      <c r="T93" s="1" t="s">
+      <c r="T93" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6332,7 +6333,7 @@
       <c r="S94">
         <v>3001</v>
       </c>
-      <c r="T94" s="1" t="s">
+      <c r="T94" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6394,7 +6395,7 @@
       <c r="S95">
         <v>3001</v>
       </c>
-      <c r="T95" s="1" t="s">
+      <c r="T95" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       <c r="S96">
         <v>3001</v>
       </c>
-      <c r="T96" s="1" t="s">
+      <c r="T96" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6518,7 +6519,7 @@
       <c r="S97">
         <v>3001</v>
       </c>
-      <c r="T97" s="1" t="s">
+      <c r="T97" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6580,7 +6581,7 @@
       <c r="S98">
         <v>3001</v>
       </c>
-      <c r="T98" s="1" t="s">
+      <c r="T98" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6642,7 +6643,7 @@
       <c r="S99">
         <v>3001</v>
       </c>
-      <c r="T99" s="1" t="s">
+      <c r="T99" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6704,7 +6705,7 @@
       <c r="S100">
         <v>3001</v>
       </c>
-      <c r="T100" s="1" t="s">
+      <c r="T100" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6766,7 +6767,7 @@
       <c r="S101">
         <v>3001</v>
       </c>
-      <c r="T101" s="1" t="s">
+      <c r="T101" t="s">
         <v>20</v>
       </c>
     </row>
